--- a/Code/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Code/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\UnityProject\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF555C27-C107-4067-9C82-8CE8C2776FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBCFC3-31F8-48D4-9456-867E409B18C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -31,20 +31,36 @@
     <t>内网端口</t>
   </si>
   <si>
+    <t>程序名</t>
+  </si>
+  <si>
     <t>MachineId</t>
   </si>
   <si>
     <t>InnerPort</t>
   </si>
   <si>
+    <t>AppName</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,7 +72,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -64,7 +79,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -73,6 +87,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +135,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E7"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -431,10 +455,11 @@
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -444,30 +469,39 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -477,8 +511,11 @@
       <c r="E6" s="5">
         <v>20001</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -487,11 +524,14 @@
       </c>
       <c r="E7" s="5">
         <v>20002</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>